--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="141">
   <si>
     <t>Flow</t>
   </si>
@@ -386,6 +386,57 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>RVL</t>
+  </si>
+  <si>
+    <t>DoPlaySheet</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>output1 IsSet</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>DoWaitFor</t>
+  </si>
+  <si>
+    <t>objectId</t>
+  </si>
+  <si>
+    <t>objectid</t>
+  </si>
+  <si>
+    <t>Duplicate_Yes</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>sleepTimeIfFound</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>OK2</t>
+  </si>
+  <si>
+    <t>DoSleep</t>
+  </si>
+  <si>
+    <t>millis</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -406,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="530">
+  <borders count="560">
     <border>
       <left/>
       <right/>
@@ -943,11 +994,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1478,6 +1559,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H82"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2249,6 +2360,24 @@
     </row>
     <row r="50">
       <c r="A50" s="459"/>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="435"/>
@@ -2605,81 +2734,295 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="447" t="s">
+      <c r="A68" s="548" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="556"/>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>59</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>27</v>
       </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="136"/>
     </row>
     <row r="70">
-      <c r="A70" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="139" t="s">
+      <c r="A70" s="557"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="549" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="552" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="555" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="533"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="530"/>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="140" t="s">
+      <c r="D80" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="144"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="145"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="150"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="152"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="153"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="158"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="160"/>
+      <c r="E80" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="144"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="145"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+      <c r="G81" s="151"/>
+      <c r="H81" s="152"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="153"/>
+      <c r="B82" s="154"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="150">
   <si>
     <t>Flow</t>
   </si>
@@ -437,6 +437,33 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
+  </si>
+  <si>
+    <t>SelectFastTab</t>
+  </si>
+  <si>
+    <t>toggleAdditionalFields</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>additionalFieldsButtonName</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -457,7 +484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="560">
+  <borders count="604">
     <border>
       <left/>
       <right/>
@@ -1024,11 +1051,55 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="560">
+  <cellXfs count="604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1589,6 +1660,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="583" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="587" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="588" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="592" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="594" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="595" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="596" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="599" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="602" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="603" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1598,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1829,596 +1944,628 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="504"/>
+      <c r="A19" s="501" t="s">
+        <v>77</v>
+      </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="502"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="522"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="523"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="524"/>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="528"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="526"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="527"/>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="525"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="165"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="456"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="575"/>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="455"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="459"/>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="505"/>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="506"/>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="507"/>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="501" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="502"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="435"/>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="448"/>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="449"/>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="164" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>80</v>
       </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="171" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="522"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="523"/>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="524"/>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="528"/>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="526"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="527"/>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="525"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="165"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="456"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="457"/>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="455"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="458" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="460" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="461" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="459"/>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="435"/>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="448"/>
+      <c r="A52" s="442" t="s">
+        <v>7</v>
+      </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="449"/>
+      <c r="A53" s="443" t="s">
+        <v>7</v>
+      </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -2430,18 +2577,18 @@
         <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="436" t="s">
+      <c r="A54" s="444" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -2457,14 +2604,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="439" t="s">
+      <c r="A55" s="445" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -2476,553 +2623,464 @@
         <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="442" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="A56" s="451"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="452"/>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="600" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="513" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="515" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="556"/>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
         <v>27</v>
       </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="443" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="444" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="557"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="549" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="552" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="553" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
         <v>27</v>
       </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="445" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="451"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="452"/>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="554" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="555" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="533"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="530"/>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" t="s">
         <v>14</v>
       </c>
-      <c r="G61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="510" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="511" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="512" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="513" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="514" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="515" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="548" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="556"/>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="557"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="549" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" t="s">
-        <v>131</v>
-      </c>
-      <c r="G71" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="550" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="551" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="552" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="553" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>7</v>
-      </c>
       <c r="G75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="554" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" t="s">
-        <v>7</v>
-      </c>
+      <c r="A76" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="144"/>
     </row>
     <row r="77">
-      <c r="A77" s="555" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" t="s">
-        <v>7</v>
-      </c>
+      <c r="A77" s="145"/>
+      <c r="B77" s="146"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="149"/>
+      <c r="F77" s="150"/>
+      <c r="G77" s="151"/>
+      <c r="H77" s="152"/>
     </row>
     <row r="78">
-      <c r="A78" s="533"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="530"/>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="144"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="145"/>
-      <c r="B81" s="146"/>
-      <c r="C81" s="147"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="150"/>
-      <c r="G81" s="151"/>
-      <c r="H81" s="152"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="153"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="155"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="160"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="157"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="159"/>
+      <c r="H78" s="160"/>
     </row>
   </sheetData>
 </worksheet>
